--- a/Default_Files/Default_Input_Excel.xlsx
+++ b/Default_Files/Default_Input_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Sneha_complete_automation_21_03/COMBINED_AUTOMATION_21_03/Default_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Saurabh_arelements_validation/saurabh_arelements_validation_03_19_25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{0682CB01-6980-4C9D-9945-74DE496AF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311866C9-369A-4607-82F3-7C0D0B1AD894}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{540C1665-6091-4F9F-B551-03ED87205299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BEAB982-0353-4DD9-912F-9C90A5E06E35}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="17496" tabRatio="897" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="476">
   <si>
     <t>Document Information</t>
   </si>
@@ -1273,9 +1273,6 @@
     <t>IB_Asw_swc</t>
   </si>
   <si>
-    <t>new_rnbl</t>
-  </si>
-  <si>
     <t>new_rnbl_symbol</t>
   </si>
   <si>
@@ -1555,9 +1552,6 @@
     <t>156</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>abcd</t>
   </si>
   <si>
@@ -1594,7 +1588,37 @@
     <t>___de___</t>
   </si>
   <si>
-    <t>DFDF</t>
+    <t>RTE Event SubInfo</t>
+  </si>
+  <si>
+    <t>RSR12</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>MdMgmt_Init12</t>
+  </si>
+  <si>
+    <t>CM_APCRCDWkUp2</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>CS6</t>
+  </si>
+  <si>
+    <t>CS7</t>
+  </si>
+  <si>
+    <t>CS8</t>
+  </si>
+  <si>
+    <t>CS9</t>
+  </si>
+  <si>
+    <t>CS10</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1919,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1997,6 +2021,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2049,13 +2081,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2072,6 +2101,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2091,17 +2129,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2112,7 +2141,7 @@
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A7465F0D-32F4-441F-B608-D2377C53BCAC}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{78F29D87-BFD7-4048-94F5-4F2BC6A7962D}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2542,30 +2571,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="dashDot">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="dashDot">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashDot">
-          <color rgb="FFFF0000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2912,91 +2917,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3011,12 +3016,12 @@
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
@@ -3027,21 +3032,21 @@
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="12"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -3087,10 +3092,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -3108,10 +3113,11 @@
     <col min="11" max="11" width="49.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="49.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="20.88671875" style="1"/>
+    <col min="14" max="14" width="108.44140625" customWidth="1"/>
+    <col min="15" max="16384" width="20.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -3151,27 +3157,30 @@
       <c r="M1" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N1" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="F2" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="57" t="s">
         <v>334</v>
       </c>
       <c r="H2" s="21" t="s">
@@ -3187,70 +3196,89 @@
         <v>27</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="15">
+        <v>372</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="21" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>334</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>94</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+        <v>51</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="42">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="L4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="21" t="s">
         <v>29</v>
       </c>
@@ -3269,17 +3297,20 @@
       <c r="M5" s="20">
         <v>0.45345000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="N5" s="39" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="26" t="s">
         <v>31</v>
       </c>
@@ -3293,15 +3324,11 @@
         <v>32</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>90</v>
+      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="39" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3314,25 +3341,20 @@
     <mergeCell ref="F2:F6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C2:E1048">
-    <cfRule type="expression" dxfId="30" priority="12">
+  <conditionalFormatting sqref="C2:E1044 H2:I1044">
+    <cfRule type="expression" dxfId="29" priority="12">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H1048">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+  <conditionalFormatting sqref="H2:H1044">
+    <cfRule type="duplicateValues" dxfId="28" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I1048">
-    <cfRule type="expression" dxfId="28" priority="10">
-      <formula>NOT(AND(   OR(AND(CODE(LEFT(H2,1))&gt;=65, CODE(LEFT(H2,1))&lt;=90), AND(CODE(LEFT(H2,1))&gt;=97, CODE(LEFT(H2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(H2, ROW(INDIRECT("1:" &amp; LEN(H2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(H2) ))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I2:I1044">
+    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I1048">
-    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K1048">
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
-    <cfRule type="expression" dxfId="25" priority="11">
+  <conditionalFormatting sqref="K2:K1044">
+    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(K2,1))&gt;=65, CODE(LEFT(K2,1))&lt;=90), AND(CODE(LEFT(K2,1))&gt;=97, CODE(LEFT(K2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(K2, ROW(INDIRECT("1:" &amp; LEN(K2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(K2) ))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3397,8 +3419,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3455,7 +3477,7 @@
         <v>318</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>344</v>
@@ -3470,7 +3492,7 @@
         <v>339</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
@@ -3571,7 +3593,7 @@
         <v>322</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E6" s="37">
         <v>127</v>
@@ -3684,7 +3706,7 @@
         <v>310</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>67</v>
@@ -3769,7 +3791,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3827,19 +3849,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="60">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="60" t="s">
+      <c r="D2" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>350</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -3849,21 +3871,23 @@
         <v>354</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="37"/>
+      <c r="J2" s="37">
+        <v>123</v>
+      </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="21" t="s">
         <v>345</v>
       </c>
@@ -3871,21 +3895,23 @@
         <v>353</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="40">
+        <v>123</v>
+      </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="21" t="s">
         <v>346</v>
       </c>
@@ -3893,21 +3919,23 @@
         <v>354</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="J4" s="37"/>
+        <v>31</v>
+      </c>
+      <c r="J4" s="40">
+        <v>123</v>
+      </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="21" t="s">
         <v>347</v>
       </c>
@@ -3915,21 +3943,23 @@
         <v>349</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="40">
+        <v>123</v>
+      </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="21" t="s">
         <v>348</v>
       </c>
@@ -3937,12 +3967,14 @@
         <v>353</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="40">
+        <v>123</v>
+      </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
     </row>
@@ -3954,7 +3986,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>55</v>
@@ -3969,132 +4001,144 @@
         <v>356</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="37"/>
+      <c r="J7" s="40">
+        <v>123</v>
+      </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="60">
+      <c r="A8" s="63">
         <v>3</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>350</v>
+      <c r="C8" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>466</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>349</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="37"/>
+      <c r="J8" s="40">
+        <v>123</v>
+      </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="21" t="s">
-        <v>345</v>
+        <v>472</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>353</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="37"/>
+      <c r="J9" s="40">
+        <v>123</v>
+      </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="21" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="37"/>
+      <c r="J10" s="40">
+        <v>123</v>
+      </c>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="21" t="s">
-        <v>347</v>
+        <v>474</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="40">
+        <v>123</v>
+      </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="21" t="s">
-        <v>348</v>
+        <v>475</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="37"/>
+      <c r="J12" s="40">
+        <v>123</v>
+      </c>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
@@ -4106,7 +4150,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>137</v>
@@ -4115,370 +4159,400 @@
         <v>352</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>355</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="37"/>
+      <c r="J13" s="40">
+        <v>123</v>
+      </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="60">
+      <c r="A14" s="63">
         <v>5</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>449</v>
-      </c>
-      <c r="D14" s="60" t="s">
+      <c r="C14" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="D14" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="G14" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>365</v>
-      </c>
       <c r="H14" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="37"/>
+      <c r="J14" s="40">
+        <v>123</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="60">
+      <c r="A15" s="63">
         <v>2</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="37"/>
+      <c r="J15" s="40">
+        <v>123</v>
+      </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A16" s="60">
+      <c r="A16" s="63">
         <v>3</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="37"/>
+      <c r="J16" s="40">
+        <v>123</v>
+      </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="60">
+      <c r="A17" s="63">
         <v>4</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="40">
+        <v>123</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="60">
+      <c r="A18" s="63">
         <v>5</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="37"/>
+      <c r="J18" s="40">
+        <v>123</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A19" s="60">
+      <c r="A19" s="63">
         <v>6</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>465</v>
+      <c r="F19" s="63" t="s">
+        <v>463</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="37"/>
+      <c r="J19" s="40">
+        <v>123</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="60">
+      <c r="A20" s="63">
         <v>2</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="37"/>
+      <c r="J20" s="40">
+        <v>123</v>
+      </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A21" s="60">
+      <c r="A21" s="63">
         <v>3</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60" t="s">
-        <v>372</v>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
+        <v>371</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="37"/>
+      <c r="J21" s="40">
+        <v>123</v>
+      </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="60">
+      <c r="A22" s="63">
         <v>4</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="37"/>
+      <c r="J22" s="40">
+        <v>123</v>
+      </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A23" s="60">
+      <c r="A23" s="63">
         <v>5</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="37"/>
+      <c r="J23" s="40">
+        <v>123</v>
+      </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="60">
+      <c r="A24" s="63">
         <v>7</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="60" t="s">
+      <c r="F24" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="F24" s="60" t="s">
-        <v>375</v>
-      </c>
       <c r="G24" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="37"/>
+      <c r="J24" s="40">
+        <v>123</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="37"/>
+      <c r="J25" s="40">
+        <v>123</v>
+      </c>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60" t="s">
-        <v>376</v>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63" t="s">
+        <v>375</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I26" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="37"/>
+      <c r="J26" s="40">
+        <v>123</v>
+      </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="37"/>
+      <c r="J27" s="40">
+        <v>123</v>
+      </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
@@ -4487,17 +4561,17 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
@@ -4580,8 +4654,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4658,9 +4732,7 @@
         <v>157</v>
       </c>
       <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
-        <v>454</v>
-      </c>
+      <c r="G2" s="29"/>
       <c r="H2" s="30" t="s">
         <v>73</v>
       </c>
@@ -4691,15 +4763,13 @@
         <v>68</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>69</v>
+        <v>469</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>157</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
-        <v>454</v>
-      </c>
+      <c r="G3" s="29"/>
       <c r="H3" s="30" t="s">
         <v>73</v>
       </c>
@@ -4720,79 +4790,79 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="60">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="29">
         <v>1</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="H4" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="66">
         <v>0</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="66">
         <v>96</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="67" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="29">
         <v>0</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="63"/>
+        <v>454</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64">
+      <c r="A6" s="70">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="63" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="34">
@@ -4801,166 +4871,160 @@
       <c r="G6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="64">
         <v>0</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="64">
         <v>7</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="67" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="29">
         <v>0</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="29">
         <v>1</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="62"/>
+        <v>457</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="29">
         <v>2</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="62"/>
+        <v>458</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="68"/>
     </row>
     <row r="10" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="29">
         <v>4</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="29">
         <v>5</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="29">
         <v>6</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="62"/>
+        <v>459</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="29">
         <v>7</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="I6:I13"/>
     <mergeCell ref="M6:M13"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="M4:M5"/>
@@ -4977,6 +5041,12 @@
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="E6:E13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="I6:I13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048">
@@ -5073,7 +5143,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5092,112 +5162,118 @@
         <v>12</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>381</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="64">
+      <c r="A2" s="70">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>389</v>
-      </c>
       <c r="E2" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="G3" s="65"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="26" t="s">
+      <c r="F4" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="65"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="26" t="s">
-        <v>392</v>
-      </c>
       <c r="E5" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="41" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D6" s="36">
         <v>15</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="41" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5206,66 +5282,66 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D7" s="36">
         <v>15</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="64">
+      <c r="A8" s="70">
         <v>4</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>409</v>
+      <c r="B8" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>408</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="G9" s="66"/>
+        <v>387</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G8:G9"/>
+  <mergeCells count="6">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="A2:A5"/>
@@ -5328,7 +5404,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5346,63 +5422,63 @@
         <v>12</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>401</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>402</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="69">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>388</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>389</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>112</v>
@@ -5413,13 +5489,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>112</v>
@@ -5430,13 +5506,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>112</v>
@@ -5447,10 +5523,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>399</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>400</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="21" t="s">
@@ -5511,7 +5587,7 @@
   </sheetPr>
   <dimension ref="B1:AO1263"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="V1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
@@ -5560,64 +5636,64 @@
   <sheetData>
     <row r="1" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O1" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="P1" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="U1" s="27" t="s">
-        <v>418</v>
-      </c>
       <c r="V1" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="W1" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="AE1" s="27" t="s">
-        <v>434</v>
-      </c>
       <c r="AF1" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI1" t="s">
         <v>349</v>
@@ -5626,19 +5702,19 @@
         <v>355</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AO1" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="2:41" ht="16.8" x14ac:dyDescent="0.3">
@@ -5685,18 +5761,18 @@
         <v>MdMgmt_Init</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V2" s="27">
         <v>0.1</v>
       </c>
       <c r="W2" s="27" t="str" cm="1">
-        <f t="array" ref="W2">IFERROR(_xlfn._xlws.FILTER(ports!C:C, (ports!B:B="ReceiverPort") * ((ports!D:D="SenderReceiverInterface") + (ports!D:D="NvDataInterface"))),"Not_Available")</f>
-        <v>Not_Available</v>
+        <f t="array" ref="W2:W3">IFERROR(_xlfn._xlws.FILTER(ports!C:C, (ports!B:B="ReceiverPort") * ((ports!D:D="SenderReceiverInterface") + (ports!D:D="NvDataInterface"))),"Not_Available")</f>
+        <v>CD_CrshSt_R</v>
       </c>
       <c r="X2" s="27" t="str" cm="1">
-        <f t="array" ref="X2">IFERROR(_xlfn._xlws.FILTER(ports!C:C, (ports!B:B="ReceiverPort") * ((ports!D:D="SenderReceiverInterface") + (ports!D:D="NvDataInterface"))),"Not_Available")</f>
-        <v>Not_Available</v>
+        <f t="array" ref="X2:X3">IFERROR(_xlfn._xlws.FILTER(ports!C:C, (ports!B:B="ReceiverPort") * ((ports!D:D="SenderReceiverInterface") + (ports!D:D="NvDataInterface"))),"Not_Available")</f>
+        <v>CD_CrshSt_R</v>
       </c>
       <c r="Y2" s="27" t="str" cm="1">
         <f t="array" ref="Y2:Y3">IFERROR(_xlfn._xlws.FILTER(ports!C:C, (ports!B:B="SenderPort") * ((ports!D:D="SenderReceiverInterface") + (ports!D:D="NvDataInterface"))),"Not_Available")</f>
@@ -5723,7 +5799,7 @@
         <v>CD_CrshSt_R8</v>
       </c>
       <c r="AE2" s="27" t="str" cm="1">
-        <f t="array" ref="AE2:AE35">_xlfn._xlws.FILTER(_xlfn.VSTACK(U1:U14, V1:V2, W1:W1000, X1:X1000, Y1:Y1000, Z1:Z1000, AA1:AA1000, AB1:AB1000, AC1:AC1000, AD1:AD1000), _xlfn.VSTACK(U1:U14, V1:V2, W1:W1000, X1:X1000, Y1:Y1000, Z1:Z1000, AA1:AA1000, AB1:AB1000, AC1:AC1000, AD1:AD1000) &lt;&gt; "")</f>
+        <f t="array" ref="AE2:AE37">_xlfn._xlws.FILTER(_xlfn.VSTACK(U1:U14, V1:V2, W1:W1000, X1:X1000, Y1:Y1000, Z1:Z1000, AA1:AA1000, AB1:AB1000, AC1:AC1000, AD1:AD1000), _xlfn.VSTACK(U1:U14, V1:V2, W1:W1000, X1:X1000, Y1:Y1000, Z1:Z1000, AA1:AA1000, AB1:AB1000, AC1:AC1000, AD1:AD1000) &lt;&gt; "")</f>
         <v>***AsynchronousServerCallReturnsEvent***</v>
       </c>
       <c r="AF2" s="27" t="str" cm="1">
@@ -5745,7 +5821,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AI2" t="s">
         <v>353</v>
@@ -5782,7 +5858,7 @@
         <v>87</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>333</v>
@@ -5809,10 +5885,16 @@
         <v>ADTS_APCRCDWkUp</v>
       </c>
       <c r="T3" s="27" t="str">
-        <v>qwe</v>
+        <v>hello</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="W3" s="27" t="str">
+        <v>CD_CrshSt_R2</v>
+      </c>
+      <c r="X3" s="27" t="str">
+        <v>CD_CrshSt_R2</v>
       </c>
       <c r="Y3" s="27" t="str">
         <v>CD_CrshSt_R5</v>
@@ -5840,14 +5922,14 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AI3" t="s">
         <v>354</v>
       </c>
       <c r="AK3" t="str">
         <f>IF(adt_primitive!D3&lt;&gt;"", adt_primitive!D3, AK2)</f>
-        <v>CM_APCRCDWkUp</v>
+        <v>CM_APCRCDWkUp2</v>
       </c>
       <c r="AL3" s="27" t="str">
         <f>IF(adt_primitive!B3&lt;&gt;"", adt_primitive!B3, AL2)</f>
@@ -5874,7 +5956,7 @@
         <v>90</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>334</v>
@@ -5904,7 +5986,7 @@
         <v>qwe</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AE4" s="27" t="str">
         <v>***BackgroundEvent***</v>
@@ -5926,7 +6008,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AK4" t="str">
         <f>IF(adt_primitive!D4&lt;&gt;"", adt_primitive!D4, AK3)</f>
@@ -5984,7 +6066,7 @@
         <v>MdMgmt_Init1</v>
       </c>
       <c r="U5" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AE5" s="27" t="str">
         <v>Please delete cell value because of BGD Event</v>
@@ -6006,7 +6088,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AK5" t="str">
         <f>IF(adt_primitive!D5&lt;&gt;"", adt_primitive!D5, AK4)</f>
@@ -6052,7 +6134,7 @@
         <v>Rnbl_MdMgmt</v>
       </c>
       <c r="U6" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AE6" s="27" t="str">
         <v>***InitEvent***</v>
@@ -6074,7 +6156,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AK6" t="str">
         <f>IF(adt_primitive!D6&lt;&gt;"", adt_primitive!D6, AK5)</f>
@@ -6123,7 +6205,7 @@
         <v>***Composite_ADT***</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE7" s="27" t="str">
         <v>Please delete cell value because of INIT Event</v>
@@ -6194,7 +6276,7 @@
         <v>struct1</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AE8" s="27" t="str">
         <v>***InternalTriggerOccurredEvent***</v>
@@ -6216,7 +6298,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AK8" t="str">
         <f>IF(adt_primitive!D8&lt;&gt;"", adt_primitive!D8, AK7)</f>
@@ -6228,7 +6310,7 @@
       </c>
       <c r="AM8" t="str">
         <f>IF(ports!E8&lt;&gt;"", ports!E8, AM7)</f>
-        <v>RSR1</v>
+        <v>RSR12</v>
       </c>
       <c r="AN8" t="str">
         <f>IF(ports!C8&lt;&gt;"", ports!C8, AN7)</f>
@@ -6236,7 +6318,7 @@
       </c>
       <c r="AO8" s="27" t="str">
         <f>IF(ports!F8&lt;&gt;"", ports!F8, AO7)</f>
-        <v>CS</v>
+        <v>CS6</v>
       </c>
     </row>
     <row r="9" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
@@ -6265,7 +6347,7 @@
         <v>array1</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AE9" s="27" t="str">
         <v>Please delete cell value because of INTTRIG Event</v>
@@ -6287,7 +6369,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AK9" t="str">
         <f>IF(adt_primitive!D9&lt;&gt;"", adt_primitive!D9, AK8)</f>
@@ -6299,7 +6381,7 @@
       </c>
       <c r="AM9" t="str">
         <f>IF(ports!E9&lt;&gt;"", ports!E9, AM8)</f>
-        <v>RSR1</v>
+        <v>RSR12</v>
       </c>
       <c r="AN9" t="str">
         <f>IF(ports!C9&lt;&gt;"", ports!C9, AN8)</f>
@@ -6307,7 +6389,7 @@
       </c>
       <c r="AO9" s="27" t="str">
         <f>IF(ports!F9&lt;&gt;"", ports!F9, AO8)</f>
-        <v>CS2</v>
+        <v>CS7</v>
       </c>
     </row>
     <row r="10" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
@@ -6333,7 +6415,7 @@
         <v>array2</v>
       </c>
       <c r="U10" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AE10" s="27" t="str">
         <v>***OsTaskExecutionEvent***</v>
@@ -6355,7 +6437,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AK10" t="str">
         <f>IF(adt_primitive!D10&lt;&gt;"", adt_primitive!D10, AK9)</f>
@@ -6367,7 +6449,7 @@
       </c>
       <c r="AM10" t="str">
         <f>IF(ports!E10&lt;&gt;"", ports!E10, AM9)</f>
-        <v>RSR1</v>
+        <v>RSR12</v>
       </c>
       <c r="AN10" t="str">
         <f>IF(ports!C10&lt;&gt;"", ports!C10, AN9)</f>
@@ -6375,7 +6457,7 @@
       </c>
       <c r="AO10" s="27" t="str">
         <f>IF(ports!F10&lt;&gt;"", ports!F10, AO9)</f>
-        <v>CS3</v>
+        <v>CS8</v>
       </c>
     </row>
     <row r="11" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
@@ -6404,7 +6486,7 @@
         <v>struct2</v>
       </c>
       <c r="U11" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AE11" s="27" t="str">
         <v>Please delete cell value because of OSTASK Event</v>
@@ -6426,7 +6508,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AK11" t="str">
         <f>IF(adt_primitive!D11&lt;&gt;"", adt_primitive!D11, AK10)</f>
@@ -6438,7 +6520,7 @@
       </c>
       <c r="AM11" t="str">
         <f>IF(ports!E11&lt;&gt;"", ports!E11, AM10)</f>
-        <v>RSR1</v>
+        <v>RSR12</v>
       </c>
       <c r="AN11" t="str">
         <f>IF(ports!C11&lt;&gt;"", ports!C11, AN10)</f>
@@ -6446,7 +6528,7 @@
       </c>
       <c r="AO11" s="27" t="str">
         <f>IF(ports!F11&lt;&gt;"", ports!F11, AO10)</f>
-        <v>CS4</v>
+        <v>CS9</v>
       </c>
     </row>
     <row r="12" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
@@ -6472,7 +6554,7 @@
         <v>***UserDefined_IDT***</v>
       </c>
       <c r="U12" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE12" s="27" t="str">
         <v>***SwcModeManagerErrorEvent***</v>
@@ -6491,7 +6573,7 @@
      "SenderPort_Options",
      ""  )
 )</f>
-        <v/>
+        <v>ReceiverPort_Options</v>
       </c>
       <c r="AK12" t="str">
         <f>IF(adt_primitive!D12&lt;&gt;"", adt_primitive!D12, AK11)</f>
@@ -6503,7 +6585,7 @@
       </c>
       <c r="AM12" t="str">
         <f>IF(ports!E12&lt;&gt;"", ports!E12, AM11)</f>
-        <v>RSR1</v>
+        <v>RSR12</v>
       </c>
       <c r="AN12" t="str">
         <f>IF(ports!C12&lt;&gt;"", ports!C12, AN11)</f>
@@ -6511,7 +6593,7 @@
       </c>
       <c r="AO12" s="27" t="str">
         <f>IF(ports!F12&lt;&gt;"", ports!F12, AO11)</f>
-        <v>CS5</v>
+        <v>CS10</v>
       </c>
     </row>
     <row r="13" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
@@ -6537,7 +6619,7 @@
         <v>struct1</v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AE13" s="27" t="str">
         <v>Please delete cell value because of MMERR Event</v>
@@ -6605,7 +6687,7 @@
         <v>array1</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE14" s="27" t="str">
         <v>***TransformerHardErrorEvent***</v>
@@ -6912,7 +6994,7 @@
         <v>ConstVoidPtr</v>
       </c>
       <c r="AE19" s="27" t="str">
-        <v>Not_Available</v>
+        <v>CD_CrshSt_R</v>
       </c>
       <c r="AF19" s="27" t="str">
         <v>uint16</v>
@@ -6965,7 +7047,7 @@
         <v>float32</v>
       </c>
       <c r="AE20" s="27" t="str">
-        <v>***DataReceiveErrorEvent***</v>
+        <v>CD_CrshSt_R2</v>
       </c>
       <c r="AF20" s="27" t="str">
         <v>uint16_least</v>
@@ -7018,7 +7100,7 @@
         <v>float64</v>
       </c>
       <c r="AE21" s="27" t="str">
-        <v>Not_Available</v>
+        <v>***DataReceiveErrorEvent***</v>
       </c>
       <c r="AF21" s="27" t="str">
         <v>uint32</v>
@@ -7077,7 +7159,7 @@
         <v>sint16</v>
       </c>
       <c r="AE22" s="27" t="str">
-        <v>***DataSendCompletedEvent***</v>
+        <v>CD_CrshSt_R</v>
       </c>
       <c r="AF22" s="27" t="str">
         <v>uint32_least</v>
@@ -7136,7 +7218,7 @@
         <v>sint16_least</v>
       </c>
       <c r="AE23" s="27" t="str">
-        <v>CD_CrshSt_R1</v>
+        <v>CD_CrshSt_R2</v>
       </c>
       <c r="AF23" s="27" t="str">
         <v>uint64</v>
@@ -7195,7 +7277,7 @@
         <v>sint32</v>
       </c>
       <c r="AE24" s="27" t="str">
-        <v>CD_CrshSt_R5</v>
+        <v>***DataSendCompletedEvent***</v>
       </c>
       <c r="AF24" s="27" t="str">
         <v>uint8</v>
@@ -7254,7 +7336,7 @@
         <v>sint32_least</v>
       </c>
       <c r="AE25" s="27" t="str">
-        <v>***DataWriteCompletedEvent***</v>
+        <v>CD_CrshSt_R1</v>
       </c>
       <c r="AF25" s="27" t="str">
         <v>uint8_least</v>
@@ -7310,7 +7392,7 @@
         <v>sint64</v>
       </c>
       <c r="AE26" s="27" t="str">
-        <v>CD_CrshSt_R1</v>
+        <v>CD_CrshSt_R5</v>
       </c>
       <c r="AF26" s="27" t="str">
         <v>VoidPtr</v>
@@ -7369,7 +7451,7 @@
         <v>sint8</v>
       </c>
       <c r="AE27" s="27" t="str">
-        <v>CD_CrshSt_R5</v>
+        <v>***DataWriteCompletedEvent***</v>
       </c>
       <c r="AH27" s="27" t="str" cm="1">
         <f t="array" ref="AH27">IF(AND(LOOKUP(2,1/(ports!B$2:B27&lt;&gt;""),ports!B$2:B27)="ReceiverPort",
@@ -7422,7 +7504,7 @@
         <v>sint8_least</v>
       </c>
       <c r="AE28" s="27" t="str">
-        <v>***ExternalTriggerOccurredEvent***</v>
+        <v>CD_CrshSt_R1</v>
       </c>
       <c r="AH28" s="27" t="str" cm="1">
         <f t="array" ref="AH28">IF(AND(LOOKUP(2,1/(ports!B$2:B28&lt;&gt;""),ports!B$2:B28)="ReceiverPort",
@@ -7475,7 +7557,7 @@
         <v>uint16</v>
       </c>
       <c r="AE29" s="27" t="str">
-        <v>Trigger_R_Port</v>
+        <v>CD_CrshSt_R5</v>
       </c>
       <c r="AH29" s="27" t="str" cm="1">
         <f t="array" ref="AH29">IF(AND(LOOKUP(2,1/(ports!B$2:B29&lt;&gt;""),ports!B$2:B29)="ReceiverPort",
@@ -7525,7 +7607,7 @@
         <v>uint16_least</v>
       </c>
       <c r="AE30" s="27" t="str">
-        <v>***ModeSwitchedAckEvent***</v>
+        <v>***ExternalTriggerOccurredEvent***</v>
       </c>
       <c r="AH30" s="27" t="str" cm="1">
         <f t="array" ref="AH30">IF(AND(LOOKUP(2,1/(ports!B$2:B30&lt;&gt;""),ports!B$2:B30)="ReceiverPort",
@@ -7572,7 +7654,7 @@
         <v>uint32</v>
       </c>
       <c r="AE31" s="27" t="str">
-        <v>Not_Available</v>
+        <v>Trigger_R_Port</v>
       </c>
       <c r="AH31" s="27" t="str" cm="1">
         <f t="array" ref="AH31">IF(AND(LOOKUP(2,1/(ports!B$2:B31&lt;&gt;""),ports!B$2:B31)="ReceiverPort",
@@ -7616,7 +7698,7 @@
         <v>uint32_least</v>
       </c>
       <c r="AE32" s="27" t="str">
-        <v>***OperationInvokedEvent***</v>
+        <v>***ModeSwitchedAckEvent***</v>
       </c>
       <c r="AH32" s="27" t="str" cm="1">
         <f t="array" ref="AH32">IF(AND(LOOKUP(2,1/(ports!B$2:B32&lt;&gt;""),ports!B$2:B32)="ReceiverPort",
@@ -7654,10 +7736,10 @@
     </row>
     <row r="33" spans="2:41" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J33" s="26" t="s">
         <v>177</v>
@@ -7704,10 +7786,10 @@
     </row>
     <row r="34" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J34" s="26" t="s">
         <v>178</v>
@@ -7716,7 +7798,7 @@
         <v>uint8</v>
       </c>
       <c r="AE34" s="27" t="str">
-        <v>***SwcModeSwitchEvent***</v>
+        <v>***OperationInvokedEvent***</v>
       </c>
       <c r="AH34" s="27" t="str" cm="1">
         <f t="array" ref="AH34">IF(AND(LOOKUP(2,1/(ports!B$2:B34&lt;&gt;""),ports!B$2:B34)="ReceiverPort",
@@ -7754,10 +7836,10 @@
     </row>
     <row r="35" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J35" s="26" t="s">
         <v>179</v>
@@ -7766,7 +7848,7 @@
         <v>uint8_least</v>
       </c>
       <c r="AE35" s="27" t="str">
-        <v>CD_CrshSt_R8</v>
+        <v>Not_Available</v>
       </c>
       <c r="AH35" s="27" t="str" cm="1">
         <f t="array" ref="AH35">IF(AND(LOOKUP(2,1/(ports!B$2:B35&lt;&gt;""),ports!B$2:B35)="ReceiverPort",
@@ -7804,13 +7886,16 @@
     </row>
     <row r="36" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D36" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J36" s="26" t="s">
         <v>180</v>
       </c>
       <c r="S36" s="27" t="str">
         <v>VoidPtr</v>
+      </c>
+      <c r="AE36" s="27" t="str">
+        <v>***SwcModeSwitchEvent***</v>
       </c>
       <c r="AH36" s="27" t="str" cm="1">
         <f t="array" ref="AH36">IF(AND(LOOKUP(2,1/(ports!B$2:B36&lt;&gt;""),ports!B$2:B36)="ReceiverPort",
@@ -7848,13 +7933,16 @@
     </row>
     <row r="37" spans="2:41" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>381</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>382</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>181</v>
+      </c>
+      <c r="AE37" s="27" t="str">
+        <v>CD_CrshSt_R8</v>
       </c>
       <c r="AH37" s="27" t="str" cm="1">
         <f t="array" ref="AH37">IF(AND(LOOKUP(2,1/(ports!B$2:B37&lt;&gt;""),ports!B$2:B37)="ReceiverPort",
@@ -7892,7 +7980,7 @@
     </row>
     <row r="38" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>182</v>
@@ -7933,7 +8021,7 @@
     </row>
     <row r="39" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J39" s="26" t="s">
         <v>183</v>
@@ -7974,7 +8062,7 @@
     </row>
     <row r="40" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>184</v>
@@ -8056,7 +8144,7 @@
     </row>
     <row r="42" spans="2:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J42" s="26" t="s">
         <v>186</v>
@@ -50358,32 +50446,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Owner xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
-      <UserInfo>
-        <DisplayName>i:0#.f|membership|srr926985@tatatechnologies.com,#i:0#.f|membership|srr926985@tatatechnologies.com,#Sushant.Renuse@tatatechnologies.com,#,#Renuse, Sushant,#,#PLM,#Tech Lead</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-  </documentManagement>
-</p:properties>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">efcd28e2-1fe6-4c4a-a9e3-ab6681936aa2</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
+</titus>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF20ACD2ACDAF4B84EF9300C67B2159" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c36ae600cfc71a682facb2fe9ea4a9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e4be601-d1eb-4833-8855-b10f66ff5f6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efc49a46b45dba0aa538c93634f147fb" ns2:_="">
     <xsd:import namespace="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
@@ -50581,32 +50650,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">5a2381df-b89f-4e9f-827b-28c008549a31</TitusGUID>
-  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
-</titus>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Owner xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
+      <UserInfo>
+        <DisplayName>i:0#.f|membership|srr926985@tatatechnologies.com,#i:0#.f|membership|srr926985@tatatechnologies.com,#Sushant.Renuse@tatatechnologies.com,#,#Renuse, Sushant,#,#PLM,#Tech Lead</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955FB65A-AA4A-4AC7-ABF5-73D99F3CD624}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18647F7B-AB5F-435B-9FBB-244B71312A6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50624,11 +50703,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955FB65A-AA4A-4AC7-ABF5-73D99F3CD624}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
-    <ds:schemaRef ds:uri=""/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Default_Files/Default_Input_Excel.xlsx
+++ b/Default_Files/Default_Input_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_arelements_validation_24_03/COMBINED_AUTOMATION/Default_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_arelements_validation_25_03/COMBINED_AUTOMATION/Default_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{540C1665-6091-4F9F-B551-03ED87205299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3582F450-AA2E-4BB5-ADB6-FEC983A7A8CE}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{540C1665-6091-4F9F-B551-03ED87205299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67E8DE2-F647-4843-AFA9-43D82BA8EC3F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="897" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_info" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="481">
   <si>
     <t>Document Information</t>
   </si>
@@ -1390,9 +1390,6 @@
     <t>PRIMITIVE</t>
   </si>
   <si>
-    <t>primitive1</t>
-  </si>
-  <si>
     <t>Implementation Data Type Category Short Name</t>
   </si>
   <si>
@@ -1619,6 +1616,24 @@
   </si>
   <si>
     <t>CS10</t>
+  </si>
+  <si>
+    <t>struct_idt1</t>
+  </si>
+  <si>
+    <t>struct_idt2</t>
+  </si>
+  <si>
+    <t>idt_array1</t>
+  </si>
+  <si>
+    <t>idt_array2</t>
+  </si>
+  <si>
+    <t>idt_primitive1</t>
+  </si>
+  <si>
+    <t>elment20</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1934,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2022,7 +2037,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2135,7 +2149,38 @@
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A7465F0D-32F4-441F-B608-D2377C53BCAC}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{78F29D87-BFD7-4048-94F5-4F2BC6A7962D}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <border>
+        <left style="dashDot">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dashDot">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dashDot">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashDot">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2907,91 +2952,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3006,12 +3051,12 @@
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
@@ -3022,21 +3067,21 @@
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="12"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3085,7 +3130,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,29 +3193,29 @@
         <v>24</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" s="55" t="s">
+      <c r="F2" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>334</v>
       </c>
       <c r="H2" s="21" t="s">
@@ -3199,14 +3244,14 @@
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>360</v>
@@ -3231,29 +3276,29 @@
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L4" s="21" t="s">
         <v>101</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>56</v>
@@ -3263,12 +3308,12 @@
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="21" t="s">
         <v>29</v>
       </c>
@@ -3295,12 +3340,12 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="26" t="s">
         <v>31</v>
       </c>
@@ -3332,19 +3377,19 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:E1044 H2:I1044">
-    <cfRule type="expression" dxfId="29" priority="12">
+    <cfRule type="expression" dxfId="31" priority="12">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1044">
-    <cfRule type="duplicateValues" dxfId="28" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1044">
-    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K1044">
-    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(K2,1))&gt;=65, CODE(LEFT(K2,1))&lt;=90), AND(CODE(LEFT(K2,1))&gt;=97, CODE(LEFT(K2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(K2, ROW(INDIRECT("1:" &amp; LEN(K2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(K2) ))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3409,8 +3454,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3476,7 +3521,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>339</v>
@@ -3696,7 +3741,7 @@
         <v>310</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>67</v>
@@ -3721,8 +3766,8 @@
   <dataConsolidate/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3781,7 +3826,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3839,19 +3884,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="60" t="s">
         <v>350</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -3873,11 +3918,11 @@
       <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="21" t="s">
         <v>345</v>
       </c>
@@ -3897,11 +3942,11 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="21" t="s">
         <v>346</v>
       </c>
@@ -3921,11 +3966,11 @@
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="21" t="s">
         <v>347</v>
       </c>
@@ -3945,11 +3990,11 @@
       <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="21" t="s">
         <v>348</v>
       </c>
@@ -3976,7 +4021,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>55</v>
@@ -4003,23 +4048,23 @@
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="61">
+      <c r="A8" s="60">
         <v>3</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>466</v>
+      <c r="E8" s="60" t="s">
+        <v>465</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>349</v>
@@ -4037,13 +4082,13 @@
       <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>353</v>
@@ -4061,13 +4106,13 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>353</v>
@@ -4085,13 +4130,13 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>354</v>
@@ -4109,13 +4154,13 @@
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>354</v>
@@ -4140,7 +4185,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>137</v>
@@ -4149,7 +4194,7 @@
         <v>352</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>355</v>
@@ -4167,22 +4212,22 @@
       <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="61">
+      <c r="A14" s="60">
         <v>5</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>448</v>
-      </c>
-      <c r="D14" s="61" t="s">
+      <c r="C14" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>363</v>
       </c>
       <c r="G14" s="21" t="s">
@@ -4201,14 +4246,14 @@
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="61">
+      <c r="A15" s="60">
         <v>2</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="21" t="s">
         <v>365</v>
       </c>
@@ -4225,14 +4270,14 @@
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
+      <c r="A16" s="60">
         <v>3</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="21" t="s">
         <v>366</v>
       </c>
@@ -4249,14 +4294,14 @@
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="61">
+      <c r="A17" s="60">
         <v>4</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="21" t="s">
         <v>367</v>
       </c>
@@ -4273,14 +4318,14 @@
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="61">
+      <c r="A18" s="60">
         <v>5</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="21" t="s">
         <v>368</v>
       </c>
@@ -4297,23 +4342,23 @@
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="61">
+      <c r="A19" s="60">
         <v>6</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>463</v>
+      <c r="F19" s="60" t="s">
+        <v>462</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>364</v>
@@ -4331,14 +4376,14 @@
       <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="61">
+      <c r="A20" s="60">
         <v>2</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="21" t="s">
         <v>365</v>
       </c>
@@ -4355,14 +4400,14 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="61">
+      <c r="A21" s="60">
         <v>3</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60" t="s">
         <v>371</v>
       </c>
       <c r="G21" s="21" t="s">
@@ -4381,14 +4426,14 @@
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="61">
+      <c r="A22" s="60">
         <v>4</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="21" t="s">
         <v>367</v>
       </c>
@@ -4405,14 +4450,14 @@
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="61">
+      <c r="A23" s="60">
         <v>5</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="21" t="s">
         <v>368</v>
       </c>
@@ -4429,26 +4474,26 @@
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="61">
+      <c r="A24" s="60">
         <v>7</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="60" t="s">
         <v>374</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>394</v>
@@ -4463,14 +4508,14 @@
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>394</v>
@@ -4485,16 +4530,16 @@
       <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60" t="s">
         <v>375</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H26" s="37" t="s">
         <v>394</v>
@@ -4509,14 +4554,14 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>394</v>
@@ -4565,34 +4610,34 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>AND(E2&lt;&gt;"", COUNTIF(E:E, E2) &gt; 1,     OR(D2&lt;&gt;INDEX(D:D, MATCH(E2, E:E, 0)),        F2&lt;&gt;INDEX(F:F, MATCH(E2, E:E, 0)),        AND(OR(D2="ClientServerInterface", D2="TriggerInterface", D2="ModeSwitchInterface"),            G2&lt;&gt;INDEX(G:G, MATCH(E2, E:E, 0)))     ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F1048">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(E2,1))&gt;=65, CODE(LEFT(E2,1))&lt;=90), AND(CODE(LEFT(E2,1))&gt;=97, CODE(LEFT(E2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(E2, ROW(INDIRECT("1:" &amp; LEN(E2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(E2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>AND(  COUNTIF($F:$F, $F2) &gt; 1,  OR(    AND($AM2 = INDEX($AM:$AM, MATCH($F2, $F:$F, 0)), $AN2 = INDEX($AN:$AN, MATCH($F2, $F:$F, 0))),      AND($AM2 &lt;&gt; INDEX($AM:$AM, MATCH($F2, $F:$F, 0)), $AN2 &lt;&gt; INDEX($AN:$AN, MATCH($F2, $F:$F, 0)))    ),  NOT(AND($AM2 = INDEX($AM:$AM, MATCH($F2, $F:$F, 0)), $AN2 &lt;&gt; INDEX($AN:$AN, MATCH($F2, $F:$F, 0))))  )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AND(   LOOKUP(2,1/(B$2:B2&lt;&gt;""),B$2:B2)="SenderPort",   OR(LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="SenderReceiverInterface",      LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="NvDataInterface"),   COUNTIF(G2, "dsp")+COUNTIF(G2, "dwa")=0 )</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>AND(   LOOKUP(2,1/(B$2:B2&lt;&gt;""),B$2:B2)="ReceiverPort",   OR(LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="SenderReceiverInterface",      LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="NvDataInterface"),   COUNTIF(G2, "dra")+COUNTIF(G2, "drpa")+COUNTIF(G2, "drpv")=0 )</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>IF(LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="TriggerInterface",    NOT(SUMPRODUCT(--ISNUMBER(SEARCH(MID(G2, ROW(INDIRECT("1:" &amp; LEN(G2))), 1), "0123456789")))=LEN(G2)),    NOT(AND(       OR(AND(CODE(LEFT(G2,1))&gt;=65, CODE(LEFT(G2,1))&lt;=90), AND(CODE(LEFT(G2,1))&gt;=97, CODE(LEFT(G2,1))&lt;=122)),       SUMPRODUCT(--ISNUMBER(SEARCH(MID(G2, ROW(INDIRECT("1:" &amp; LEN(G2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(G2)    )) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4644,8 +4689,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4753,7 +4798,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>157</v>
@@ -4780,79 +4825,79 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="61">
+      <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="29">
         <v>1</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="H4" s="61" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="67">
         <v>0</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="67">
         <v>96</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="29">
         <v>0</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="64"/>
+        <v>453</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65">
+      <c r="A6" s="64">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="34">
@@ -4861,157 +4906,157 @@
       <c r="G6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="69">
         <v>0</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="69">
         <v>7</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="29">
         <v>0</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="63"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="29">
         <v>1</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="63"/>
+        <v>456</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="29">
         <v>2</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="63"/>
+        <v>457</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="29">
         <v>4</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="63"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="29">
         <v>5</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="63"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="29">
         <v>6</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="63"/>
+        <v>458</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="29">
         <v>7</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="64"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -5040,24 +5085,24 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(B2,1))&gt;=65, CODE(LEFT(B2,1))&lt;=90), AND(CODE(LEFT(B2,1))&gt;=97, CODE(LEFT(B2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(B2, ROW(INDIRECT("1:" &amp; LEN(B2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(B2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(D2&lt;&gt;"", COUNTIF(D:D, D2) &gt; 1, OR(E2&lt;&gt;INDEX(E:E, MATCH(D2, D:D, 0)),                                      F2&lt;&gt;INDEX(F:F, MATCH(D2, D:D, 0)),                                      G2&lt;&gt;INDEX(G:G, MATCH(D2, D:D, 0)),                                      H2&lt;&gt;INDEX(H:H, MATCH(D2, D:D, 0))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(D2,1))&gt;=65, CODE(LEFT(D2,1))&lt;=90), AND(CODE(LEFT(D2,1))&gt;=97, CODE(LEFT(D2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(D2, ROW(INDIRECT("1:" &amp; LEN(D2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(D2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1048">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(I2&lt;&gt;"", COUNTIF(I:I, I2) &gt; 1, OR(J2&lt;&gt;INDEX(J:J, MATCH(I2, I:I, 0)),                                      K2&lt;&gt;INDEX(K:K, MATCH(I2, I:I, 0)),                                      L2&lt;&gt;INDEX(L:L, MATCH(I2, I:I, 0))                           ))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(I2,1))&gt;=65, CODE(LEFT(I2,1))&lt;=90), AND(CODE(LEFT(I2,1))&gt;=97, CODE(LEFT(I2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(I2, ROW(INDIRECT("1:" &amp; LEN(I2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(I2) ))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5133,7 +5178,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5164,20 +5209,20 @@
         <v>380</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="65">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>387</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5189,14 +5234,14 @@
       <c r="F2" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>112</v>
+      <c r="G2" s="64" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="26" t="s">
         <v>389</v>
       </c>
@@ -5204,16 +5249,14 @@
         <v>384</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>112</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="26" t="s">
         <v>390</v>
       </c>
@@ -5223,14 +5266,12 @@
       <c r="F4" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>112</v>
-      </c>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="26" t="s">
         <v>391</v>
       </c>
@@ -5240,9 +5281,7 @@
       <c r="F5" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>112</v>
-      </c>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -5263,8 +5302,8 @@
       <c r="F6" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>112</v>
+      <c r="G6" s="26" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -5286,22 +5325,22 @@
       <c r="F7" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>112</v>
+      <c r="G7" s="26" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="65">
+      <c r="A8" s="64">
         <v>4</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>408</v>
+      <c r="C8" s="64" t="s">
+        <v>407</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>383</v>
@@ -5309,29 +5348,29 @@
       <c r="F8" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>112</v>
+      <c r="G8" s="64" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>112</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G9" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="A2:A5"/>
@@ -5341,17 +5380,23 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND(D2&lt;&gt;"", NOT(ISNUMBER(D2 + 0)), COUNTIF(D:D, D2) &gt; 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>IF(B2="ARRAY", NOT(SUMPRODUCT(--ISNUMBER(SEARCH(MID(D2, ROW(INDIRECT("1:" &amp; LEN(D2))), 1), "0123456789")))=LEN(D2)),    NOT(AND(       OR(AND(CODE(LEFT(D2,1))&gt;=65, CODE(LEFT(D2,1))&lt;=90), AND(CODE(LEFT(D2,1))&gt;=97, CODE(LEFT(D2,1))&lt;=122)),       SUMPRODUCT(--ISNUMBER(SEARCH(MID(D2, ROW(INDIRECT("1:" &amp; LEN(D2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(D2)    )) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>NOT(AND(   OR(AND(CODE(LEFT(G2,1))&gt;=65, CODE(LEFT(G2,1))&lt;=90), AND(CODE(LEFT(G2,1))&gt;=97, CODE(LEFT(G2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(G2, ROW(INDIRECT("1:" &amp; LEN(G2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(G2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5391,10 +5436,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505CC7DF-19BD-48FE-8793-8EDD6B68F86E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5415,24 +5460,24 @@
         <v>395</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>400</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>401</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="70">
+      <c r="A2" s="69">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="70" t="s">
-        <v>387</v>
+      <c r="C2" s="69" t="s">
+        <v>475</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>388</v>
@@ -5442,9 +5487,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="26" t="s">
         <v>389</v>
       </c>
@@ -5453,9 +5498,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="26" t="s">
         <v>390</v>
       </c>
@@ -5464,9 +5509,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="26" t="s">
         <v>391</v>
       </c>
@@ -5482,10 +5527,10 @@
         <v>396</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>112</v>
@@ -5499,44 +5544,75 @@
         <v>397</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>5</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="C10" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="21" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C1048">
+  <conditionalFormatting sqref="C2:C7 C10:C1050">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048">
+  <conditionalFormatting sqref="D2:D7 D10:D1050">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(D2&lt;&gt;"", NOT(ISNUMBER(D2 + 0)), COUNTIF(D:D, D2) &gt; 1)</formula>
     </cfRule>
@@ -5545,7 +5621,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{C575B4A1-92CD-4E97-BB8D-DD0ED4F6CCDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{C575B4A1-92CD-4E97-BB8D-DD0ED4F6CCDE}">
       <formula1>Mapped_IDT</formula1>
     </dataValidation>
   </dataValidations>
@@ -5562,7 +5638,7 @@
           <x14:formula1>
             <xm:f>enum_list!$D$34:$D$37</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B6:B8</xm:sqref>
+          <xm:sqref>B2 B6:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5626,64 +5702,64 @@
   <sheetData>
     <row r="1" spans="2:41" ht="15" x14ac:dyDescent="0.25">
       <c r="O1" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="P1" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="U1" s="27" t="s">
-        <v>417</v>
-      </c>
       <c r="V1" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="W1" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="AE1" s="27" t="s">
-        <v>433</v>
-      </c>
       <c r="AF1" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AI1" t="s">
         <v>349</v>
@@ -5692,19 +5768,19 @@
         <v>355</v>
       </c>
       <c r="AK1" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL1" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="AL1" s="27" t="s">
-        <v>456</v>
-      </c>
       <c r="AM1" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN1" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="AN1" s="27" t="s">
-        <v>461</v>
-      </c>
       <c r="AO1" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="2:41" ht="15" x14ac:dyDescent="0.25">
@@ -5735,15 +5811,15 @@
         <v>struct1</v>
       </c>
       <c r="Q2" s="27" t="str" cm="1">
-        <f t="array" ref="Q2:Q5">_xlfn._xlws.FILTER(idt!C2:INDEX(idt!C:C, LOOKUP(2,1/(idt!C:C&lt;&gt;""), ROW(idt!C:C))), idt!C2:INDEX(idt!C:C, LOOKUP(2,1/(idt!C:C&lt;&gt;""), ROW(idt!C:C)))&lt;&gt;"")</f>
-        <v>struct1</v>
+        <f t="array" ref="Q2:Q6">_xlfn._xlws.FILTER(idt!C2:INDEX(idt!C:C, LOOKUP(2,1/(idt!C:C&lt;&gt;""), ROW(idt!C:C))), idt!C2:INDEX(idt!C:C, LOOKUP(2,1/(idt!C:C&lt;&gt;""), ROW(idt!C:C)))&lt;&gt;"")</f>
+        <v>struct_idt1</v>
       </c>
       <c r="R2" t="str" cm="1">
         <f t="array" ref="R2:R20">_xlfn._xlws.FILTER(enum_list!L3:L21, enum_list!L3:L21&lt;&gt;"")</f>
         <v>boolean</v>
       </c>
       <c r="S2" s="27" t="str" cm="1">
-        <f t="array" ref="S2:S36">_xlfn._xlws.FILTER(_xlfn.VSTACK(O1:O1000, P1:P1000, Q1:Q1000, R1:R100), _xlfn.VSTACK(O1:O1000, P1:P1000, Q1:Q1000, R1:R100) &lt;&gt; "")</f>
+        <f t="array" ref="S2:S37">_xlfn._xlws.FILTER(_xlfn.VSTACK(O1:O1000, P1:P1000, Q1:Q1000, R1:R100), _xlfn.VSTACK(O1:O1000, P1:P1000, Q1:Q1000, R1:R100) &lt;&gt; "")</f>
         <v>***Primitive_ADT***</v>
       </c>
       <c r="T2" s="27" t="str" cm="1">
@@ -5751,7 +5827,7 @@
         <v>MdMgmt_Init</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V2" s="27">
         <v>0.1</v>
@@ -5793,7 +5869,7 @@
         <v>***AsynchronousServerCallReturnsEvent***</v>
       </c>
       <c r="AF2" s="27" t="str" cm="1">
-        <f t="array" ref="AF2:AF26">_xlfn._xlws.FILTER(_xlfn.VSTACK(Q1:Q1000, R1:R100), _xlfn.VSTACK(Q1:Q1000, R1:R100) &lt;&gt; "")</f>
+        <f t="array" ref="AF2:AF27">_xlfn._xlws.FILTER(_xlfn.VSTACK(Q1:Q1000, R1:R100), _xlfn.VSTACK(Q1:Q1000, R1:R100) &lt;&gt; "")</f>
         <v>***UserDefined_IDT***</v>
       </c>
       <c r="AG2" s="27" t="str" cm="1">
@@ -5848,7 +5924,7 @@
         <v>87</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>333</v>
@@ -5866,7 +5942,7 @@
         <v>array1</v>
       </c>
       <c r="Q3" s="27" t="str">
-        <v>array1</v>
+        <v>idt_array1</v>
       </c>
       <c r="R3" s="27" t="str">
         <v>ConstVoidPtr</v>
@@ -5878,7 +5954,7 @@
         <v>hello</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W3" s="27" t="str">
         <v>CD_CrshSt_R2</v>
@@ -5896,7 +5972,7 @@
         <v>Please delete cell value because of ASCR Event</v>
       </c>
       <c r="AF3" s="27" t="str">
-        <v>struct1</v>
+        <v>struct_idt1</v>
       </c>
       <c r="AG3" s="27" t="str">
         <v>ADTS_APCRCDWkUp</v>
@@ -5946,7 +6022,7 @@
         <v>90</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>334</v>
@@ -5964,7 +6040,7 @@
         <v>array2</v>
       </c>
       <c r="Q4" s="27" t="str">
-        <v>array2</v>
+        <v>idt_array2</v>
       </c>
       <c r="R4" s="27" t="str">
         <v>float32</v>
@@ -5976,13 +6052,13 @@
         <v>qwe</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AE4" s="27" t="str">
         <v>***BackgroundEvent***</v>
       </c>
       <c r="AF4" s="27" t="str">
-        <v>array1</v>
+        <v>idt_array1</v>
       </c>
       <c r="AG4" s="27" t="str">
         <v>ADTS_APCRCDWkUpdas</v>
@@ -6044,7 +6120,7 @@
         <v>struct2</v>
       </c>
       <c r="Q5" s="27" t="str">
-        <v>primitive1</v>
+        <v>struct_idt2</v>
       </c>
       <c r="R5" s="27" t="str">
         <v>float64</v>
@@ -6056,13 +6132,13 @@
         <v>MdMgmt_Init1</v>
       </c>
       <c r="U5" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE5" s="27" t="str">
         <v>Please delete cell value because of BGD Event</v>
       </c>
       <c r="AF5" s="27" t="str">
-        <v>array2</v>
+        <v>idt_array2</v>
       </c>
       <c r="AG5" s="27" t="str">
         <v>ADTS_APCRCDWkUp1</v>
@@ -6114,6 +6190,9 @@
       <c r="L6" s="26" t="s">
         <v>99</v>
       </c>
+      <c r="Q6" s="27" t="str">
+        <v>idt_primitive1</v>
+      </c>
       <c r="R6" s="27" t="str">
         <v>sint16</v>
       </c>
@@ -6124,13 +6203,13 @@
         <v>Rnbl_MdMgmt</v>
       </c>
       <c r="U6" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AE6" s="27" t="str">
         <v>***InitEvent***</v>
       </c>
       <c r="AF6" s="27" t="str">
-        <v>primitive1</v>
+        <v>struct_idt2</v>
       </c>
       <c r="AG6" s="27" t="str">
         <v>ADTS_ActnOnErToMM</v>
@@ -6195,13 +6274,13 @@
         <v>***Composite_ADT***</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AE7" s="27" t="str">
         <v>Please delete cell value because of INIT Event</v>
       </c>
       <c r="AF7" s="27" t="str">
-        <v>***Platform_IDT***</v>
+        <v>idt_primitive1</v>
       </c>
       <c r="AG7" s="27" t="str">
         <v>***Composite_ADT***</v>
@@ -6266,13 +6345,13 @@
         <v>struct1</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AE8" s="27" t="str">
         <v>***InternalTriggerOccurredEvent***</v>
       </c>
       <c r="AF8" s="27" t="str">
-        <v>boolean</v>
+        <v>***Platform_IDT***</v>
       </c>
       <c r="AG8" s="27" t="str">
         <v>struct1</v>
@@ -6337,13 +6416,13 @@
         <v>array1</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE9" s="27" t="str">
         <v>Please delete cell value because of INTTRIG Event</v>
       </c>
       <c r="AF9" s="27" t="str">
-        <v>ConstVoidPtr</v>
+        <v>boolean</v>
       </c>
       <c r="AG9" s="27" t="str">
         <v>array1</v>
@@ -6405,13 +6484,13 @@
         <v>array2</v>
       </c>
       <c r="U10" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AE10" s="27" t="str">
         <v>***OsTaskExecutionEvent***</v>
       </c>
       <c r="AF10" s="27" t="str">
-        <v>float32</v>
+        <v>ConstVoidPtr</v>
       </c>
       <c r="AG10" s="27" t="str">
         <v>array2</v>
@@ -6476,13 +6555,13 @@
         <v>struct2</v>
       </c>
       <c r="U11" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AE11" s="27" t="str">
         <v>Please delete cell value because of OSTASK Event</v>
       </c>
       <c r="AF11" s="27" t="str">
-        <v>float64</v>
+        <v>float32</v>
       </c>
       <c r="AG11" s="27" t="str">
         <v>struct2</v>
@@ -6544,13 +6623,13 @@
         <v>***UserDefined_IDT***</v>
       </c>
       <c r="U12" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AE12" s="27" t="str">
         <v>***SwcModeManagerErrorEvent***</v>
       </c>
       <c r="AF12" s="27" t="str">
-        <v>sint16</v>
+        <v>float64</v>
       </c>
       <c r="AH12" s="27" t="str" cm="1">
         <f t="array" ref="AH12">IF(AND(LOOKUP(2,1/(ports!B$2:B12&lt;&gt;""),ports!B$2:B12)="ReceiverPort",
@@ -6606,16 +6685,16 @@
         <v>uint16</v>
       </c>
       <c r="S13" s="27" t="str">
-        <v>struct1</v>
+        <v>struct_idt1</v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AE13" s="27" t="str">
         <v>Please delete cell value because of MMERR Event</v>
       </c>
       <c r="AF13" s="27" t="str">
-        <v>sint16_least</v>
+        <v>sint16</v>
       </c>
       <c r="AH13" s="27" t="str" cm="1">
         <f t="array" ref="AH13">IF(AND(LOOKUP(2,1/(ports!B$2:B13&lt;&gt;""),ports!B$2:B13)="ReceiverPort",
@@ -6674,16 +6753,16 @@
         <v>uint16_least</v>
       </c>
       <c r="S14" s="27" t="str">
-        <v>array1</v>
+        <v>idt_array1</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE14" s="27" t="str">
         <v>***TransformerHardErrorEvent***</v>
       </c>
       <c r="AF14" s="27" t="str">
-        <v>sint32</v>
+        <v>sint16_least</v>
       </c>
       <c r="AH14" s="27" t="str" cm="1">
         <f t="array" ref="AH14">IF(AND(LOOKUP(2,1/(ports!B$2:B14&lt;&gt;""),ports!B$2:B14)="ReceiverPort",
@@ -6742,13 +6821,13 @@
         <v>uint32</v>
       </c>
       <c r="S15" s="27" t="str">
-        <v>array2</v>
+        <v>idt_array2</v>
       </c>
       <c r="AE15" s="27" t="str">
         <v>Please delete cell value because of XMER Event</v>
       </c>
       <c r="AF15" s="27" t="str">
-        <v>sint32_least</v>
+        <v>sint32</v>
       </c>
       <c r="AH15" s="27" t="str" cm="1">
         <f t="array" ref="AH15">IF(AND(LOOKUP(2,1/(ports!B$2:B15&lt;&gt;""),ports!B$2:B15)="ReceiverPort",
@@ -6807,13 +6886,13 @@
         <v>uint32_least</v>
       </c>
       <c r="S16" s="27" t="str">
-        <v>primitive1</v>
+        <v>struct_idt2</v>
       </c>
       <c r="AE16" s="27" t="str">
         <v>***TimingEvent***</v>
       </c>
       <c r="AF16" s="27" t="str">
-        <v>sint64</v>
+        <v>sint32_least</v>
       </c>
       <c r="AH16" s="27" t="str" cm="1">
         <f t="array" ref="AH16">IF(AND(LOOKUP(2,1/(ports!B$2:B16&lt;&gt;""),ports!B$2:B16)="ReceiverPort",
@@ -6869,13 +6948,13 @@
         <v>uint64</v>
       </c>
       <c r="S17" s="27" t="str">
-        <v>***Platform_IDT***</v>
+        <v>idt_primitive1</v>
       </c>
       <c r="AE17" s="27">
         <v>0.1</v>
       </c>
       <c r="AF17" s="27" t="str">
-        <v>sint8</v>
+        <v>sint64</v>
       </c>
       <c r="AH17" s="27" t="str" cm="1">
         <f t="array" ref="AH17">IF(AND(LOOKUP(2,1/(ports!B$2:B17&lt;&gt;""),ports!B$2:B17)="ReceiverPort",
@@ -6928,13 +7007,13 @@
         <v>uint8</v>
       </c>
       <c r="S18" s="27" t="str">
-        <v>boolean</v>
+        <v>***Platform_IDT***</v>
       </c>
       <c r="AE18" s="27" t="str">
         <v>***DataReceivedEvent***</v>
       </c>
       <c r="AF18" s="27" t="str">
-        <v>sint8_least</v>
+        <v>sint8</v>
       </c>
       <c r="AH18" s="27" t="str" cm="1">
         <f t="array" ref="AH18">IF(AND(LOOKUP(2,1/(ports!B$2:B18&lt;&gt;""),ports!B$2:B18)="ReceiverPort",
@@ -6981,13 +7060,13 @@
         <v>uint8_least</v>
       </c>
       <c r="S19" s="27" t="str">
-        <v>ConstVoidPtr</v>
+        <v>boolean</v>
       </c>
       <c r="AE19" s="27" t="str">
         <v>CD_CrshSt_R</v>
       </c>
       <c r="AF19" s="27" t="str">
-        <v>uint16</v>
+        <v>sint8_least</v>
       </c>
       <c r="AH19" s="27" t="str" cm="1">
         <f t="array" ref="AH19">IF(AND(LOOKUP(2,1/(ports!B$2:B19&lt;&gt;""),ports!B$2:B19)="ReceiverPort",
@@ -7034,13 +7113,13 @@
         <v>VoidPtr</v>
       </c>
       <c r="S20" s="27" t="str">
-        <v>float32</v>
+        <v>ConstVoidPtr</v>
       </c>
       <c r="AE20" s="27" t="str">
         <v>CD_CrshSt_R2</v>
       </c>
       <c r="AF20" s="27" t="str">
-        <v>uint16_least</v>
+        <v>uint16</v>
       </c>
       <c r="AH20" s="27" t="str" cm="1">
         <f t="array" ref="AH20">IF(AND(LOOKUP(2,1/(ports!B$2:B20&lt;&gt;""),ports!B$2:B20)="ReceiverPort",
@@ -7087,13 +7166,13 @@
         <v>156</v>
       </c>
       <c r="S21" s="27" t="str">
-        <v>float64</v>
+        <v>float32</v>
       </c>
       <c r="AE21" s="27" t="str">
         <v>***DataReceiveErrorEvent***</v>
       </c>
       <c r="AF21" s="27" t="str">
-        <v>uint32</v>
+        <v>uint16_least</v>
       </c>
       <c r="AH21" s="27" t="str" cm="1">
         <f t="array" ref="AH21">IF(AND(LOOKUP(2,1/(ports!B$2:B21&lt;&gt;""),ports!B$2:B21)="ReceiverPort",
@@ -7146,13 +7225,13 @@
         <v>158</v>
       </c>
       <c r="S22" s="27" t="str">
-        <v>sint16</v>
+        <v>float64</v>
       </c>
       <c r="AE22" s="27" t="str">
         <v>CD_CrshSt_R</v>
       </c>
       <c r="AF22" s="27" t="str">
-        <v>uint32_least</v>
+        <v>uint32</v>
       </c>
       <c r="AH22" s="27" t="str" cm="1">
         <f t="array" ref="AH22">IF(AND(LOOKUP(2,1/(ports!B$2:B22&lt;&gt;""),ports!B$2:B22)="ReceiverPort",
@@ -7205,13 +7284,13 @@
         <v>159</v>
       </c>
       <c r="S23" s="27" t="str">
-        <v>sint16_least</v>
+        <v>sint16</v>
       </c>
       <c r="AE23" s="27" t="str">
         <v>CD_CrshSt_R2</v>
       </c>
       <c r="AF23" s="27" t="str">
-        <v>uint64</v>
+        <v>uint32_least</v>
       </c>
       <c r="AH23" s="27" t="str" cm="1">
         <f t="array" ref="AH23">IF(AND(LOOKUP(2,1/(ports!B$2:B23&lt;&gt;""),ports!B$2:B23)="ReceiverPort",
@@ -7264,13 +7343,13 @@
         <v>161</v>
       </c>
       <c r="S24" s="27" t="str">
-        <v>sint32</v>
+        <v>sint16_least</v>
       </c>
       <c r="AE24" s="27" t="str">
         <v>***DataSendCompletedEvent***</v>
       </c>
       <c r="AF24" s="27" t="str">
-        <v>uint8</v>
+        <v>uint64</v>
       </c>
       <c r="AH24" s="27" t="str" cm="1">
         <f t="array" ref="AH24">IF(AND(LOOKUP(2,1/(ports!B$2:B24&lt;&gt;""),ports!B$2:B24)="ReceiverPort",
@@ -7323,13 +7402,13 @@
         <v>163</v>
       </c>
       <c r="S25" s="27" t="str">
-        <v>sint32_least</v>
+        <v>sint32</v>
       </c>
       <c r="AE25" s="27" t="str">
         <v>CD_CrshSt_R1</v>
       </c>
       <c r="AF25" s="27" t="str">
-        <v>uint8_least</v>
+        <v>uint8</v>
       </c>
       <c r="AH25" s="27" t="str" cm="1">
         <f t="array" ref="AH25">IF(AND(LOOKUP(2,1/(ports!B$2:B25&lt;&gt;""),ports!B$2:B25)="ReceiverPort",
@@ -7379,13 +7458,13 @@
         <v>165</v>
       </c>
       <c r="S26" s="27" t="str">
-        <v>sint64</v>
+        <v>sint32_least</v>
       </c>
       <c r="AE26" s="27" t="str">
         <v>CD_CrshSt_R5</v>
       </c>
       <c r="AF26" s="27" t="str">
-        <v>VoidPtr</v>
+        <v>uint8_least</v>
       </c>
       <c r="AH26" s="27" t="str" cm="1">
         <f t="array" ref="AH26">IF(AND(LOOKUP(2,1/(ports!B$2:B26&lt;&gt;""),ports!B$2:B26)="ReceiverPort",
@@ -7438,10 +7517,13 @@
         <v>167</v>
       </c>
       <c r="S27" s="27" t="str">
-        <v>sint8</v>
+        <v>sint64</v>
       </c>
       <c r="AE27" s="27" t="str">
         <v>***DataWriteCompletedEvent***</v>
+      </c>
+      <c r="AF27" s="27" t="str">
+        <v>VoidPtr</v>
       </c>
       <c r="AH27" s="27" t="str" cm="1">
         <f t="array" ref="AH27">IF(AND(LOOKUP(2,1/(ports!B$2:B27&lt;&gt;""),ports!B$2:B27)="ReceiverPort",
@@ -7491,7 +7573,7 @@
         <v>169</v>
       </c>
       <c r="S28" s="27" t="str">
-        <v>sint8_least</v>
+        <v>sint8</v>
       </c>
       <c r="AE28" s="27" t="str">
         <v>CD_CrshSt_R1</v>
@@ -7544,7 +7626,7 @@
         <v>171</v>
       </c>
       <c r="S29" s="27" t="str">
-        <v>uint16</v>
+        <v>sint8_least</v>
       </c>
       <c r="AE29" s="27" t="str">
         <v>CD_CrshSt_R5</v>
@@ -7594,7 +7676,7 @@
         <v>173</v>
       </c>
       <c r="S30" s="27" t="str">
-        <v>uint16_least</v>
+        <v>uint16</v>
       </c>
       <c r="AE30" s="27" t="str">
         <v>***ExternalTriggerOccurredEvent***</v>
@@ -7641,7 +7723,7 @@
         <v>175</v>
       </c>
       <c r="S31" s="27" t="str">
-        <v>uint32</v>
+        <v>uint16_least</v>
       </c>
       <c r="AE31" s="27" t="str">
         <v>Trigger_R_Port</v>
@@ -7685,7 +7767,7 @@
         <v>176</v>
       </c>
       <c r="S32" s="27" t="str">
-        <v>uint32_least</v>
+        <v>uint32</v>
       </c>
       <c r="AE32" s="27" t="str">
         <v>***ModeSwitchedAckEvent***</v>
@@ -7735,7 +7817,7 @@
         <v>177</v>
       </c>
       <c r="S33" s="27" t="str">
-        <v>uint64</v>
+        <v>uint32_least</v>
       </c>
       <c r="AE33" s="27" t="str">
         <v>Not_Available</v>
@@ -7785,7 +7867,7 @@
         <v>178</v>
       </c>
       <c r="S34" s="27" t="str">
-        <v>uint8</v>
+        <v>uint64</v>
       </c>
       <c r="AE34" s="27" t="str">
         <v>***OperationInvokedEvent***</v>
@@ -7835,7 +7917,7 @@
         <v>179</v>
       </c>
       <c r="S35" s="27" t="str">
-        <v>uint8_least</v>
+        <v>uint8</v>
       </c>
       <c r="AE35" s="27" t="str">
         <v>Not_Available</v>
@@ -7882,7 +7964,7 @@
         <v>180</v>
       </c>
       <c r="S36" s="27" t="str">
-        <v>VoidPtr</v>
+        <v>uint8_least</v>
       </c>
       <c r="AE36" s="27" t="str">
         <v>***SwcModeSwitchEvent***</v>
@@ -7930,6 +8012,9 @@
       </c>
       <c r="J37" s="26" t="s">
         <v>181</v>
+      </c>
+      <c r="S37" s="27" t="str">
+        <v>VoidPtr</v>
       </c>
       <c r="AE37" s="27" t="str">
         <v>CD_CrshSt_R8</v>
@@ -50437,7 +50522,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">efcd28e2-1fe6-4c4a-a9e3-ab6681936aa2</TitusGUID>
+  <TitusGUID xmlns="">13415162-7c7e-4690-b9c0-c3277ee45481</TitusGUID>
   <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
 </titus>
 </file>
